--- a/docs/station3/tripost_all_table_definitions.xlsx
+++ b/docs/station3/tripost_all_table_definitions.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="70">
   <si>
     <t>カラム名</t>
   </si>
@@ -51,6 +51,9 @@
     <t>NULL</t>
   </si>
   <si>
+    <t>初期値</t>
+  </si>
+  <si>
     <t>備考</t>
   </si>
   <si>
@@ -75,6 +78,9 @@
     <t>username</t>
   </si>
   <si>
+    <t>" "</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
@@ -114,6 +120,9 @@
     <t>TIMESTAMP</t>
   </si>
   <si>
+    <t>CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
     <t>updated_at</t>
   </si>
   <si>
@@ -171,9 +180,15 @@
     <t>post_status</t>
   </si>
   <si>
+    <t>"prepare"</t>
+  </si>
+  <si>
     <t>share_scope</t>
   </si>
   <si>
+    <t>"private"</t>
+  </si>
+  <si>
     <t>post_id</t>
   </si>
   <si>
@@ -219,7 +234,19 @@
     <t>name</t>
   </si>
   <si>
+    <t>"日本"</t>
+  </si>
+  <si>
+    <t>"solo"</t>
+  </si>
+  <si>
+    <t>"nature"</t>
+  </si>
+  <si>
     <t>price</t>
+  </si>
+  <si>
+    <t>""</t>
   </si>
 </sst>
 </file>
@@ -1207,22 +1234,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.4615384615385" customWidth="1"/>
     <col min="2" max="2" width="22.6153846153846" customWidth="1"/>
     <col min="3" max="3" width="8.46153846153846" customWidth="1"/>
     <col min="4" max="4" width="7.38461538461539" customWidth="1"/>
-    <col min="5" max="5" width="23.5384615384615" customWidth="1"/>
+    <col min="5" max="5" width="26.6923076923077" customWidth="1"/>
+    <col min="6" max="6" width="23.5384615384615" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1238,103 +1266,133 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1346,21 +1404,21 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10.3076923076923" customWidth="1"/>
     <col min="2" max="2" width="22.6153846153846" customWidth="1"/>
     <col min="3" max="3" width="8.46153846153846" customWidth="1"/>
-    <col min="5" max="5" width="22.9230769230769" customWidth="1"/>
+    <col min="5" max="6" width="22.9230769230769" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1376,27 +1434,33 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1408,21 +1472,21 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10.3076923076923" customWidth="1"/>
     <col min="2" max="2" width="22.6153846153846" customWidth="1"/>
     <col min="3" max="3" width="8.46153846153846" customWidth="1"/>
-    <col min="5" max="5" width="22.9230769230769" customWidth="1"/>
+    <col min="5" max="6" width="22.9230769230769" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1438,27 +1502,33 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1470,22 +1540,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="124" zoomScaleNormal="124" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="19.3076923076923" customWidth="1"/>
     <col min="2" max="2" width="22.6153846153846" customWidth="1"/>
     <col min="3" max="3" width="8.46153846153846" customWidth="1"/>
     <col min="4" max="4" width="7.38461538461539" customWidth="1"/>
-    <col min="5" max="5" width="22.9230769230769" customWidth="1"/>
+    <col min="5" max="5" width="26.6923076923077" customWidth="1"/>
+    <col min="6" max="6" width="22.9230769230769" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1501,181 +1572,226 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="E16" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1687,21 +1803,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="22.6153846153846" customWidth="1"/>
     <col min="3" max="3" width="8.46153846153846" customWidth="1"/>
-    <col min="5" max="5" width="22.9230769230769" customWidth="1"/>
+    <col min="5" max="6" width="22.9230769230769" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1717,55 +1833,61 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="E5" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1777,22 +1899,22 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="22.6153846153846" customWidth="1"/>
     <col min="3" max="3" width="8.46153846153846" customWidth="1"/>
     <col min="4" max="4" width="7.38461538461539" customWidth="1"/>
-    <col min="5" max="5" width="22.9230769230769" customWidth="1"/>
+    <col min="5" max="6" width="22.9230769230769" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1808,63 +1930,72 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="E6" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1876,22 +2007,22 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="A1:E5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.3076923076923" customWidth="1"/>
     <col min="2" max="2" width="22.6153846153846" customWidth="1"/>
     <col min="3" max="3" width="8.46153846153846" customWidth="1"/>
     <col min="4" max="4" width="7.38461538461539" customWidth="1"/>
-    <col min="5" max="5" width="22.9230769230769" customWidth="1"/>
+    <col min="5" max="6" width="22.9230769230769" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1907,55 +2038,61 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
+      <c r="E5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1967,22 +2104,22 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10.3076923076923" customWidth="1"/>
     <col min="2" max="2" width="22.6153846153846" customWidth="1"/>
     <col min="3" max="3" width="8.46153846153846" customWidth="1"/>
     <col min="4" max="4" width="7.38461538461539" customWidth="1"/>
-    <col min="5" max="5" width="22.9230769230769" customWidth="1"/>
+    <col min="5" max="6" width="22.9230769230769" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1995,86 +2132,105 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>41</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2087,22 +2243,22 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="22.6153846153846" customWidth="1"/>
     <col min="3" max="3" width="8.46153846153846" customWidth="1"/>
     <col min="4" max="4" width="7.38461538461539" customWidth="1"/>
-    <col min="5" max="5" width="22.9230769230769" customWidth="1"/>
+    <col min="5" max="6" width="22.9230769230769" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2118,49 +2274,58 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
+      <c r="E5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2172,22 +2337,22 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10.3076923076923" customWidth="1"/>
     <col min="2" max="2" width="22.6153846153846" customWidth="1"/>
     <col min="3" max="3" width="8.46153846153846" customWidth="1"/>
     <col min="4" max="4" width="7.38461538461539" customWidth="1"/>
-    <col min="5" max="5" width="22.9230769230769" customWidth="1"/>
+    <col min="5" max="6" width="22.9230769230769" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2203,27 +2368,33 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2235,21 +2406,21 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10.3076923076923" customWidth="1"/>
     <col min="2" max="2" width="22.6153846153846" customWidth="1"/>
     <col min="3" max="3" width="8.46153846153846" customWidth="1"/>
-    <col min="5" max="5" width="22.9230769230769" customWidth="1"/>
+    <col min="5" max="6" width="22.9230769230769" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2265,27 +2436,33 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/docs/station3/tripost_all_table_definitions.xlsx
+++ b/docs/station3/tripost_all_table_definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="10980"/>
+    <workbookView windowWidth="28800" windowHeight="12960" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="71">
   <si>
     <t>カラム名</t>
   </si>
@@ -75,12 +75,12 @@
     <t>VARCHAR(50)</t>
   </si>
   <si>
+    <t>" "</t>
+  </si>
+  <si>
     <t>username</t>
   </si>
   <si>
-    <t>" "</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -243,10 +243,13 @@
     <t>"nature"</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>""</t>
+    <t>price_min</t>
+  </si>
+  <si>
+    <t>INT UNSIGNED</t>
+  </si>
+  <si>
+    <t>price_max</t>
   </si>
 </sst>
 </file>
@@ -1236,8 +1239,8 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1292,18 +1295,21 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1314,7 +1320,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1325,7 +1331,7 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1335,6 +1341,9 @@
       <c r="B7" t="s">
         <v>17</v>
       </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
       <c r="E7" t="s">
         <v>3</v>
       </c>
@@ -1346,8 +1355,8 @@
       <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
-        <v>3</v>
+      <c r="D8" t="b">
+        <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
@@ -1363,12 +1372,8 @@
       <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
+      <c r="D9"/>
+      <c r="E9"/>
       <c r="F9" t="s">
         <v>24</v>
       </c>
@@ -1472,13 +1477,13 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10.3076923076923" customWidth="1"/>
     <col min="2" max="2" width="22.6153846153846" customWidth="1"/>
@@ -1525,10 +1530,27 @@
         <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>69</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
       </c>
       <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
         <v>69</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1542,8 +1564,8 @@
   <sheetPr/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="124" zoomScaleNormal="124" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1612,7 +1634,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1622,11 +1644,11 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>3</v>
+      <c r="D5" t="b">
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1636,8 +1658,8 @@
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
-        <v>3</v>
+      <c r="D6" t="b">
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
@@ -1653,9 +1675,6 @@
       <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
@@ -1667,11 +1686,11 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
-        <v>3</v>
+      <c r="D8" t="b">
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1684,9 +1703,6 @@
       <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
       <c r="F9" t="s">
         <v>37</v>
       </c>
@@ -1698,8 +1714,11 @@
       <c r="B10" t="s">
         <v>39</v>
       </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1709,8 +1728,11 @@
       <c r="B11" t="s">
         <v>41</v>
       </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1723,9 +1745,6 @@
       <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
       <c r="F12" t="s">
         <v>43</v>
       </c>
@@ -1740,12 +1759,8 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>3</v>
-      </c>
+      <c r="D13"/>
+      <c r="E13"/>
       <c r="F13" t="s">
         <v>45</v>
       </c>
@@ -1902,7 +1917,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1982,6 +1997,9 @@
       </c>
       <c r="B5" t="s">
         <v>20</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -2106,8 +2124,8 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -2183,6 +2201,9 @@
       <c r="B5" t="s">
         <v>57</v>
       </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2215,11 @@
       <c r="B6" t="s">
         <v>17</v>
       </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2205,6 +2229,9 @@
       <c r="B7" t="s">
         <v>60</v>
       </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
       <c r="E7" t="s">
         <v>3</v>
       </c>
@@ -2216,6 +2243,9 @@
       <c r="B8" t="s">
         <v>60</v>
       </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
       <c r="E8" t="s">
         <v>3</v>
       </c>
@@ -2227,8 +2257,8 @@
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
-        <v>3</v>
+      <c r="D9" t="b">
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
@@ -2246,7 +2276,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -2312,6 +2342,9 @@
       </c>
       <c r="B4" t="s">
         <v>17</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>

--- a/docs/station3/tripost_all_table_definitions.xlsx
+++ b/docs/station3/tripost_all_table_definitions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12960" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="10980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="82">
   <si>
     <t>カラム名</t>
   </si>
@@ -78,6 +78,9 @@
     <t>" "</t>
   </si>
   <si>
+    <t>unique</t>
+  </si>
+  <si>
     <t>username</t>
   </si>
   <si>
@@ -93,7 +96,7 @@
     <t>VARCHAR(255)</t>
   </si>
   <si>
-    <t>profile_image_url</t>
+    <t>profile_image</t>
   </si>
   <si>
     <t>bio</t>
@@ -102,61 +105,70 @@
     <t>TEXT</t>
   </si>
   <si>
+    <t>visited_countries</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>countries.id</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>AUTO_INCREMENT</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>users.id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>subtitle</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
     <t>country_id</t>
   </si>
   <si>
-    <t>BIGINT</t>
-  </si>
-  <si>
-    <t>FK</t>
-  </si>
-  <si>
-    <t>countries.id</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-  </si>
-  <si>
-    <t>CURRENT_TIMESTAMP</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>AUTO_INCREMENT</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>users.id</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>subtitle</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>region</t>
   </si>
   <si>
     <t>style_id</t>
   </si>
   <si>
+    <t xml:space="preserve"> "ソロ"</t>
+  </si>
+  <si>
     <t>styles.id</t>
   </si>
   <si>
-    <t>season</t>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
+    <t>period</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>例：2025年8月</t>
   </si>
   <si>
     <t>days</t>
@@ -165,9 +177,15 @@
     <t>INTEGER</t>
   </si>
   <si>
+    <t>例：1日間</t>
+  </si>
+  <si>
     <t>purpose_id</t>
   </si>
   <si>
+    <t>"歴史・文化"</t>
+  </si>
+  <si>
     <t>purposes.id</t>
   </si>
   <si>
@@ -180,13 +198,16 @@
     <t>post_status</t>
   </si>
   <si>
-    <t>"prepare"</t>
+    <t>ENUM</t>
+  </si>
+  <si>
+    <t>"準備中","旅行中","旅行済"</t>
   </si>
   <si>
     <t>share_scope</t>
   </si>
   <si>
-    <t>"private"</t>
+    <t>"非公開","公開"</t>
   </si>
   <si>
     <t>post_id</t>
@@ -234,7 +255,13 @@
     <t>name</t>
   </si>
   <si>
-    <t>"日本"</t>
+    <t>code</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>VARCHAR(8)</t>
   </si>
   <si>
     <t>"solo"</t>
@@ -243,13 +270,19 @@
     <t>"nature"</t>
   </si>
   <si>
-    <t>price_min</t>
+    <t>min</t>
   </si>
   <si>
     <t>INT UNSIGNED</t>
   </si>
   <si>
-    <t>price_max</t>
+    <t>max</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1273,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1287,7 +1320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1297,10 +1330,13 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1314,10 +1350,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1325,10 +1361,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1336,10 +1372,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1350,10 +1386,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -1364,40 +1400,38 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9"/>
-      <c r="E9"/>
+        <v>24</v>
+      </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1412,7 +1446,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1454,18 +1488,18 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1477,13 +1511,13 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10.3076923076923" customWidth="1"/>
     <col min="2" max="2" width="22.6153846153846" customWidth="1"/>
@@ -1522,15 +1556,15 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1541,15 +1575,29 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1564,8 +1612,8 @@
   <sheetPr/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="E15" sqref="A14:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1574,7 +1622,7 @@
     <col min="2" max="2" width="22.6153846153846" customWidth="1"/>
     <col min="3" max="3" width="8.46153846153846" customWidth="1"/>
     <col min="4" max="4" width="7.38461538461539" customWidth="1"/>
-    <col min="5" max="5" width="26.6923076923077" customWidth="1"/>
+    <col min="5" max="5" width="33.0769230769231" customWidth="1"/>
     <col min="6" max="6" width="22.9230769230769" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1609,26 +1657,32 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1639,7 +1693,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1653,10 +1707,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -1667,21 +1721,21 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1695,24 +1749,27 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1720,93 +1777,100 @@
       <c r="E10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13"/>
+        <v>24</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
         <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1863,46 +1927,46 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1960,43 +2024,43 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -2007,13 +2071,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2071,46 +2135,46 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2124,7 +2188,7 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -2166,29 +2230,29 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2196,10 +2260,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -2210,10 +2274,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -2224,10 +2288,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -2238,10 +2302,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -2252,10 +2316,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -2319,29 +2383,29 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -2352,13 +2416,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2370,13 +2434,13 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10.3076923076923" customWidth="1"/>
     <col min="2" max="2" width="22.6153846153846" customWidth="1"/>
@@ -2416,18 +2480,31 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>65</v>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2484,18 +2561,18 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
